--- a/Lab1/src/Report/CS3353-Lab01-Report.xlsx
+++ b/Lab1/src/Report/CS3353-Lab01-Report.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AC4DF6-E4B8-423A-B604-D76685819C71}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF6F81-0945-4F78-94EE-5D87EDE41A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>DataType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,12 +89,16 @@
     <t>【Partial Sorted】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>From the Lab Report we got, we could easily find out that with the increase of the file size, the sort time increased exponentially. Moreover, for the same file size, Bubble sort usually takes the longest time for sort, while merge sort always takes the least time. Even when we change the set type (random, reversed, unique, and partial sorted), such difference still exist. However, with the lack of test times, we could not show which type of sort algorithm has the most stable sort time, and that may be the next step that my project will do in the future.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +121,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -145,10 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6184,10 +6200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F64"/>
+  <dimension ref="A2:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6863,7 +6879,103 @@
         <v>12</v>
       </c>
     </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A66:E78"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
